--- a/InputData/fuels/ETRbF/Export Tax Rate by Fuel.xlsx
+++ b/InputData/fuels/ETRbF/Export Tax Rate by Fuel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\fuels\ETRbF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/fuels/etrbf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4FD26-4CFC-4841-8A4A-7231FF5A55A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -194,6 +195,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,22 +476,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="91.3984375" customWidth="1"/>
+    <col min="2" max="2" width="91.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="7">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -497,55 +502,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="A11" r:id="rId2" location="ref592273" display="https://www.britannica.com/topic/tariff - ref592273"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A11" r:id="rId2" location="ref592273" display="https://www.britannica.com/topic/tariff - ref592273" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -553,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -563,19 +568,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -583,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -591,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -599,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -607,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -615,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -623,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -631,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -639,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -647,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -655,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -663,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -671,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -679,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -687,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -695,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -703,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -711,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -719,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -727,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -735,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>

--- a/InputData/fuels/ETRbF/Export Tax Rate by Fuel.xlsx
+++ b/InputData/fuels/ETRbF/Export Tax Rate by Fuel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/fuels/etrbf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/fuels/etrbf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A4FD26-4CFC-4841-8A4A-7231FF5A55A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1B4254-BF3E-9D45-8113-820ACC4A3D4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
